--- a/Projektzeitplan.xlsx
+++ b/Projektzeitplan.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6498E75B-CC4D-4588-A137-B6426E8A90B8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3D0E025-51D6-4532-9C84-9308BAB3D7CB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1950" yWindow="1950" windowWidth="15375" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="37">
   <si>
     <t>Aufgaben</t>
   </si>
@@ -137,10 +137,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -270,7 +277,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -303,9 +310,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -320,6 +324,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -602,8 +610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BA15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V10" sqref="V10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="W10" sqref="W10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -615,156 +623,156 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17" t="s">
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17" t="s">
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17"/>
-      <c r="W1" s="17"/>
-      <c r="X1" s="17"/>
-      <c r="Y1" s="17"/>
-      <c r="Z1" s="17" t="s">
+      <c r="T1" s="22"/>
+      <c r="U1" s="22"/>
+      <c r="V1" s="22"/>
+      <c r="W1" s="22"/>
+      <c r="X1" s="22"/>
+      <c r="Y1" s="22"/>
+      <c r="Z1" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="AA1" s="17"/>
-      <c r="AB1" s="17"/>
-      <c r="AC1" s="17"/>
-      <c r="AD1" s="17"/>
-      <c r="AE1" s="17"/>
-      <c r="AF1" s="17"/>
-      <c r="AG1" s="17" t="s">
+      <c r="AA1" s="22"/>
+      <c r="AB1" s="22"/>
+      <c r="AC1" s="22"/>
+      <c r="AD1" s="22"/>
+      <c r="AE1" s="22"/>
+      <c r="AF1" s="22"/>
+      <c r="AG1" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="AH1" s="17"/>
-      <c r="AI1" s="17"/>
-      <c r="AJ1" s="17"/>
-      <c r="AK1" s="17"/>
-      <c r="AL1" s="17"/>
-      <c r="AM1" s="17"/>
-      <c r="AN1" s="17" t="s">
+      <c r="AH1" s="22"/>
+      <c r="AI1" s="22"/>
+      <c r="AJ1" s="22"/>
+      <c r="AK1" s="22"/>
+      <c r="AL1" s="22"/>
+      <c r="AM1" s="22"/>
+      <c r="AN1" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="AO1" s="17"/>
-      <c r="AP1" s="17"/>
-      <c r="AQ1" s="17"/>
-      <c r="AR1" s="17"/>
-      <c r="AS1" s="17"/>
-      <c r="AT1" s="17"/>
-      <c r="AU1" s="17" t="s">
+      <c r="AO1" s="22"/>
+      <c r="AP1" s="22"/>
+      <c r="AQ1" s="22"/>
+      <c r="AR1" s="22"/>
+      <c r="AS1" s="22"/>
+      <c r="AT1" s="22"/>
+      <c r="AU1" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="AV1" s="17"/>
-      <c r="AW1" s="17"/>
-      <c r="AX1" s="17"/>
-      <c r="AY1" s="17"/>
-      <c r="AZ1" s="17"/>
-      <c r="BA1" s="17"/>
+      <c r="AV1" s="22"/>
+      <c r="AW1" s="22"/>
+      <c r="AX1" s="22"/>
+      <c r="AY1" s="22"/>
+      <c r="AZ1" s="22"/>
+      <c r="BA1" s="22"/>
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="17" t="s">
+      <c r="A2" s="17"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17" t="s">
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17" t="s">
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17"/>
-      <c r="X2" s="17"/>
-      <c r="Y2" s="17"/>
-      <c r="Z2" s="17" t="s">
+      <c r="T2" s="22"/>
+      <c r="U2" s="22"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="22"/>
+      <c r="X2" s="22"/>
+      <c r="Y2" s="22"/>
+      <c r="Z2" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="AA2" s="17"/>
-      <c r="AB2" s="17"/>
-      <c r="AC2" s="17"/>
-      <c r="AD2" s="17"/>
-      <c r="AE2" s="17"/>
-      <c r="AF2" s="17"/>
-      <c r="AG2" s="17" t="s">
+      <c r="AA2" s="22"/>
+      <c r="AB2" s="22"/>
+      <c r="AC2" s="22"/>
+      <c r="AD2" s="22"/>
+      <c r="AE2" s="22"/>
+      <c r="AF2" s="22"/>
+      <c r="AG2" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="AH2" s="17"/>
-      <c r="AI2" s="17"/>
-      <c r="AJ2" s="17"/>
-      <c r="AK2" s="17"/>
-      <c r="AL2" s="17"/>
-      <c r="AM2" s="17"/>
-      <c r="AN2" s="17" t="s">
+      <c r="AH2" s="22"/>
+      <c r="AI2" s="22"/>
+      <c r="AJ2" s="22"/>
+      <c r="AK2" s="22"/>
+      <c r="AL2" s="22"/>
+      <c r="AM2" s="22"/>
+      <c r="AN2" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="AO2" s="17"/>
-      <c r="AP2" s="17"/>
-      <c r="AQ2" s="17"/>
-      <c r="AR2" s="17"/>
-      <c r="AS2" s="17"/>
-      <c r="AT2" s="17"/>
-      <c r="AU2" s="17" t="s">
+      <c r="AO2" s="22"/>
+      <c r="AP2" s="22"/>
+      <c r="AQ2" s="22"/>
+      <c r="AR2" s="22"/>
+      <c r="AS2" s="22"/>
+      <c r="AT2" s="22"/>
+      <c r="AU2" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="AV2" s="17"/>
-      <c r="AW2" s="17"/>
-      <c r="AX2" s="17"/>
-      <c r="AY2" s="17"/>
-      <c r="AZ2" s="17"/>
-      <c r="BA2" s="17"/>
+      <c r="AV2" s="22"/>
+      <c r="AW2" s="22"/>
+      <c r="AX2" s="22"/>
+      <c r="AY2" s="22"/>
+      <c r="AZ2" s="22"/>
+      <c r="BA2" s="22"/>
     </row>
     <row r="3" spans="1:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="19"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
       <c r="E3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1197,12 +1205,12 @@
       <c r="AE8" s="4"/>
       <c r="AF8" s="4"/>
       <c r="AG8" s="4"/>
-      <c r="AH8" s="1"/>
-      <c r="AI8" s="1"/>
-      <c r="AJ8" s="1"/>
-      <c r="AK8" s="1"/>
-      <c r="AL8" s="1"/>
-      <c r="AM8" s="1"/>
+      <c r="AH8" s="23"/>
+      <c r="AI8" s="23"/>
+      <c r="AJ8" s="23"/>
+      <c r="AK8" s="23"/>
+      <c r="AL8" s="23"/>
+      <c r="AM8" s="23"/>
       <c r="AN8" s="1"/>
       <c r="AO8" s="1"/>
       <c r="AP8" s="1"/>
@@ -1223,10 +1231,10 @@
         <v>33</v>
       </c>
       <c r="B9" s="10">
-        <v>43535</v>
+        <v>43541</v>
       </c>
       <c r="C9" s="10">
-        <v>43542</v>
+        <v>43549</v>
       </c>
       <c r="D9" s="16"/>
       <c r="E9" s="1"/>
@@ -1257,21 +1265,21 @@
       <c r="AD9" s="1"/>
       <c r="AE9" s="1"/>
       <c r="AF9" s="1"/>
-      <c r="AG9" s="4"/>
-      <c r="AH9" s="4"/>
-      <c r="AI9" s="4"/>
-      <c r="AJ9" s="4"/>
-      <c r="AK9" s="4"/>
-      <c r="AL9" s="4"/>
+      <c r="AG9" s="13"/>
+      <c r="AH9" s="13"/>
+      <c r="AI9" s="13"/>
+      <c r="AJ9" s="13"/>
+      <c r="AK9" s="13"/>
+      <c r="AL9" s="13"/>
       <c r="AM9" s="4"/>
       <c r="AN9" s="4"/>
-      <c r="AO9" s="1"/>
-      <c r="AP9" s="1"/>
-      <c r="AQ9" s="1"/>
-      <c r="AR9" s="1"/>
-      <c r="AS9" s="1"/>
-      <c r="AT9" s="1"/>
-      <c r="AU9" s="1"/>
+      <c r="AO9" s="4"/>
+      <c r="AP9" s="13"/>
+      <c r="AQ9" s="13"/>
+      <c r="AR9" s="13"/>
+      <c r="AS9" s="13"/>
+      <c r="AT9" s="13"/>
+      <c r="AU9" s="13"/>
       <c r="AV9" s="1"/>
       <c r="AW9" s="1"/>
       <c r="AX9" s="1"/>
@@ -1635,6 +1643,14 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="AN1:AT1"/>
+    <mergeCell ref="AN2:AT2"/>
+    <mergeCell ref="AU1:BA1"/>
+    <mergeCell ref="AU2:BA2"/>
+    <mergeCell ref="Z1:AF1"/>
+    <mergeCell ref="Z2:AF2"/>
+    <mergeCell ref="AG1:AM1"/>
+    <mergeCell ref="AG2:AM2"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="C1:C3"/>
     <mergeCell ref="D1:D3"/>
@@ -1645,14 +1661,6 @@
     <mergeCell ref="E1:K1"/>
     <mergeCell ref="L1:R1"/>
     <mergeCell ref="L2:R2"/>
-    <mergeCell ref="AN1:AT1"/>
-    <mergeCell ref="AN2:AT2"/>
-    <mergeCell ref="AU1:BA1"/>
-    <mergeCell ref="AU2:BA2"/>
-    <mergeCell ref="Z1:AF1"/>
-    <mergeCell ref="Z2:AF2"/>
-    <mergeCell ref="AG1:AM1"/>
-    <mergeCell ref="AG2:AM2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Projektzeitplan.xlsx
+++ b/Projektzeitplan.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3D0E025-51D6-4532-9C84-9308BAB3D7CB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FB82647-1A50-44B1-8C3C-2AE970CF7852}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="15375" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="37">
   <si>
     <t>Aufgaben</t>
   </si>
@@ -153,7 +153,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -184,6 +184,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="7">
     <border>
@@ -277,7 +283,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -308,7 +314,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -324,10 +333,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -610,8 +617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BA15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="W10" sqref="W10"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -623,156 +630,156 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22" t="s">
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22" t="s">
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="T1" s="22"/>
-      <c r="U1" s="22"/>
-      <c r="V1" s="22"/>
-      <c r="W1" s="22"/>
-      <c r="X1" s="22"/>
-      <c r="Y1" s="22"/>
-      <c r="Z1" s="22" t="s">
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
+      <c r="W1" s="17"/>
+      <c r="X1" s="17"/>
+      <c r="Y1" s="17"/>
+      <c r="Z1" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="AA1" s="22"/>
-      <c r="AB1" s="22"/>
-      <c r="AC1" s="22"/>
-      <c r="AD1" s="22"/>
-      <c r="AE1" s="22"/>
-      <c r="AF1" s="22"/>
-      <c r="AG1" s="22" t="s">
+      <c r="AA1" s="17"/>
+      <c r="AB1" s="17"/>
+      <c r="AC1" s="17"/>
+      <c r="AD1" s="17"/>
+      <c r="AE1" s="17"/>
+      <c r="AF1" s="17"/>
+      <c r="AG1" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="AH1" s="22"/>
-      <c r="AI1" s="22"/>
-      <c r="AJ1" s="22"/>
-      <c r="AK1" s="22"/>
-      <c r="AL1" s="22"/>
-      <c r="AM1" s="22"/>
-      <c r="AN1" s="22" t="s">
+      <c r="AH1" s="17"/>
+      <c r="AI1" s="17"/>
+      <c r="AJ1" s="17"/>
+      <c r="AK1" s="17"/>
+      <c r="AL1" s="17"/>
+      <c r="AM1" s="17"/>
+      <c r="AN1" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="AO1" s="22"/>
-      <c r="AP1" s="22"/>
-      <c r="AQ1" s="22"/>
-      <c r="AR1" s="22"/>
-      <c r="AS1" s="22"/>
-      <c r="AT1" s="22"/>
-      <c r="AU1" s="22" t="s">
+      <c r="AO1" s="17"/>
+      <c r="AP1" s="17"/>
+      <c r="AQ1" s="17"/>
+      <c r="AR1" s="17"/>
+      <c r="AS1" s="17"/>
+      <c r="AT1" s="17"/>
+      <c r="AU1" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="AV1" s="22"/>
-      <c r="AW1" s="22"/>
-      <c r="AX1" s="22"/>
-      <c r="AY1" s="22"/>
-      <c r="AZ1" s="22"/>
-      <c r="BA1" s="22"/>
+      <c r="AV1" s="17"/>
+      <c r="AW1" s="17"/>
+      <c r="AX1" s="17"/>
+      <c r="AY1" s="17"/>
+      <c r="AZ1" s="17"/>
+      <c r="BA1" s="17"/>
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A2" s="17"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="22" t="s">
+      <c r="A2" s="18"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22" t="s">
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22" t="s">
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="T2" s="22"/>
-      <c r="U2" s="22"/>
-      <c r="V2" s="22"/>
-      <c r="W2" s="22"/>
-      <c r="X2" s="22"/>
-      <c r="Y2" s="22"/>
-      <c r="Z2" s="22" t="s">
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="17"/>
+      <c r="W2" s="17"/>
+      <c r="X2" s="17"/>
+      <c r="Y2" s="17"/>
+      <c r="Z2" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="AA2" s="22"/>
-      <c r="AB2" s="22"/>
-      <c r="AC2" s="22"/>
-      <c r="AD2" s="22"/>
-      <c r="AE2" s="22"/>
-      <c r="AF2" s="22"/>
-      <c r="AG2" s="22" t="s">
+      <c r="AA2" s="17"/>
+      <c r="AB2" s="17"/>
+      <c r="AC2" s="17"/>
+      <c r="AD2" s="17"/>
+      <c r="AE2" s="17"/>
+      <c r="AF2" s="17"/>
+      <c r="AG2" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="AH2" s="22"/>
-      <c r="AI2" s="22"/>
-      <c r="AJ2" s="22"/>
-      <c r="AK2" s="22"/>
-      <c r="AL2" s="22"/>
-      <c r="AM2" s="22"/>
-      <c r="AN2" s="22" t="s">
+      <c r="AH2" s="17"/>
+      <c r="AI2" s="17"/>
+      <c r="AJ2" s="17"/>
+      <c r="AK2" s="17"/>
+      <c r="AL2" s="17"/>
+      <c r="AM2" s="17"/>
+      <c r="AN2" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="AO2" s="22"/>
-      <c r="AP2" s="22"/>
-      <c r="AQ2" s="22"/>
-      <c r="AR2" s="22"/>
-      <c r="AS2" s="22"/>
-      <c r="AT2" s="22"/>
-      <c r="AU2" s="22" t="s">
+      <c r="AO2" s="17"/>
+      <c r="AP2" s="17"/>
+      <c r="AQ2" s="17"/>
+      <c r="AR2" s="17"/>
+      <c r="AS2" s="17"/>
+      <c r="AT2" s="17"/>
+      <c r="AU2" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="AV2" s="22"/>
-      <c r="AW2" s="22"/>
-      <c r="AX2" s="22"/>
-      <c r="AY2" s="22"/>
-      <c r="AZ2" s="22"/>
-      <c r="BA2" s="22"/>
+      <c r="AV2" s="17"/>
+      <c r="AW2" s="17"/>
+      <c r="AX2" s="17"/>
+      <c r="AY2" s="17"/>
+      <c r="AZ2" s="17"/>
+      <c r="BA2" s="17"/>
     </row>
     <row r="3" spans="1:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="18"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
+      <c r="A3" s="19"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
       <c r="E3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1173,7 +1180,7 @@
         <v>43527</v>
       </c>
       <c r="C8" s="10">
-        <v>43535</v>
+        <v>43536</v>
       </c>
       <c r="D8" s="15"/>
       <c r="E8" s="1"/>
@@ -1205,12 +1212,12 @@
       <c r="AE8" s="4"/>
       <c r="AF8" s="4"/>
       <c r="AG8" s="4"/>
-      <c r="AH8" s="23"/>
-      <c r="AI8" s="23"/>
-      <c r="AJ8" s="23"/>
-      <c r="AK8" s="23"/>
-      <c r="AL8" s="23"/>
-      <c r="AM8" s="23"/>
+      <c r="AH8" s="16"/>
+      <c r="AI8" s="24"/>
+      <c r="AJ8" s="24"/>
+      <c r="AK8" s="24"/>
+      <c r="AL8" s="24"/>
+      <c r="AM8" s="24"/>
       <c r="AN8" s="1"/>
       <c r="AO8" s="1"/>
       <c r="AP8" s="1"/>
@@ -1231,12 +1238,12 @@
         <v>33</v>
       </c>
       <c r="B9" s="10">
-        <v>43541</v>
+        <v>43536</v>
       </c>
       <c r="C9" s="10">
-        <v>43549</v>
-      </c>
-      <c r="D9" s="16"/>
+        <v>43539</v>
+      </c>
+      <c r="D9" s="15"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -1266,14 +1273,14 @@
       <c r="AE9" s="1"/>
       <c r="AF9" s="1"/>
       <c r="AG9" s="13"/>
-      <c r="AH9" s="13"/>
-      <c r="AI9" s="13"/>
-      <c r="AJ9" s="13"/>
-      <c r="AK9" s="13"/>
+      <c r="AH9" s="4"/>
+      <c r="AI9" s="4"/>
+      <c r="AJ9" s="4"/>
+      <c r="AK9" s="4"/>
       <c r="AL9" s="13"/>
-      <c r="AM9" s="4"/>
-      <c r="AN9" s="4"/>
-      <c r="AO9" s="4"/>
+      <c r="AM9" s="13"/>
+      <c r="AN9" s="13"/>
+      <c r="AO9" s="13"/>
       <c r="AP9" s="13"/>
       <c r="AQ9" s="13"/>
       <c r="AR9" s="13"/>
@@ -1291,9 +1298,13 @@
       <c r="A10" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+      <c r="B10" s="10">
+        <v>43539</v>
+      </c>
+      <c r="C10" s="10">
+        <v>43541</v>
+      </c>
+      <c r="D10" s="15"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -1326,9 +1337,9 @@
       <c r="AH10" s="1"/>
       <c r="AI10" s="1"/>
       <c r="AJ10" s="1"/>
-      <c r="AK10" s="1"/>
-      <c r="AL10" s="1"/>
-      <c r="AM10" s="1"/>
+      <c r="AK10" s="4"/>
+      <c r="AL10" s="4"/>
+      <c r="AM10" s="4"/>
       <c r="AN10" s="1"/>
       <c r="AO10" s="1"/>
       <c r="AP10" s="1"/>
@@ -1348,9 +1359,13 @@
       <c r="A11" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="B11" s="10">
+        <v>43541</v>
+      </c>
+      <c r="C11" s="10">
+        <v>43542</v>
+      </c>
+      <c r="D11" s="15"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -1385,8 +1400,8 @@
       <c r="AJ11" s="1"/>
       <c r="AK11" s="1"/>
       <c r="AL11" s="1"/>
-      <c r="AM11" s="1"/>
-      <c r="AN11" s="1"/>
+      <c r="AM11" s="4"/>
+      <c r="AN11" s="4"/>
       <c r="AO11" s="1"/>
       <c r="AP11" s="1"/>
       <c r="AQ11" s="1"/>
@@ -1405,9 +1420,13 @@
       <c r="A12" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+      <c r="B12" s="10">
+        <v>43542</v>
+      </c>
+      <c r="C12" s="10">
+        <v>43549</v>
+      </c>
+      <c r="D12" s="23"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -1443,14 +1462,14 @@
       <c r="AK12" s="1"/>
       <c r="AL12" s="1"/>
       <c r="AM12" s="1"/>
-      <c r="AN12" s="1"/>
-      <c r="AO12" s="1"/>
-      <c r="AP12" s="1"/>
-      <c r="AQ12" s="1"/>
-      <c r="AR12" s="1"/>
-      <c r="AS12" s="1"/>
-      <c r="AT12" s="1"/>
-      <c r="AU12" s="1"/>
+      <c r="AN12" s="4"/>
+      <c r="AO12" s="4"/>
+      <c r="AP12" s="4"/>
+      <c r="AQ12" s="4"/>
+      <c r="AR12" s="4"/>
+      <c r="AS12" s="4"/>
+      <c r="AT12" s="4"/>
+      <c r="AU12" s="4"/>
       <c r="AV12" s="1"/>
       <c r="AW12" s="1"/>
       <c r="AX12" s="1"/>
@@ -1529,7 +1548,7 @@
       <c r="C14" s="10">
         <v>43542</v>
       </c>
-      <c r="D14" s="12"/>
+      <c r="D14" s="14"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -1643,14 +1662,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="AN1:AT1"/>
-    <mergeCell ref="AN2:AT2"/>
-    <mergeCell ref="AU1:BA1"/>
-    <mergeCell ref="AU2:BA2"/>
-    <mergeCell ref="Z1:AF1"/>
-    <mergeCell ref="Z2:AF2"/>
-    <mergeCell ref="AG1:AM1"/>
-    <mergeCell ref="AG2:AM2"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="C1:C3"/>
     <mergeCell ref="D1:D3"/>
@@ -1661,6 +1672,14 @@
     <mergeCell ref="E1:K1"/>
     <mergeCell ref="L1:R1"/>
     <mergeCell ref="L2:R2"/>
+    <mergeCell ref="AN1:AT1"/>
+    <mergeCell ref="AN2:AT2"/>
+    <mergeCell ref="AU1:BA1"/>
+    <mergeCell ref="AU2:BA2"/>
+    <mergeCell ref="Z1:AF1"/>
+    <mergeCell ref="Z2:AF2"/>
+    <mergeCell ref="AG1:AM1"/>
+    <mergeCell ref="AG2:AM2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Projektzeitplan.xlsx
+++ b/Projektzeitplan.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FB82647-1A50-44B1-8C3C-2AE970CF7852}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CDD0DEF-8F7B-45D5-8627-4E242DFC9F6C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="42">
   <si>
     <t>Aufgaben</t>
   </si>
@@ -131,6 +131,21 @@
   </si>
   <si>
     <t>Sprint 5: Nutzeraccount</t>
+  </si>
+  <si>
+    <t>Datenmodell</t>
+  </si>
+  <si>
+    <t>Sprint 6: Suchergebnisse Filtern</t>
+  </si>
+  <si>
+    <t>Sprint 7: Statistik</t>
+  </si>
+  <si>
+    <t>Sprint 8: Kundenrezension</t>
+  </si>
+  <si>
+    <t>undefi.</t>
   </si>
 </sst>
 </file>
@@ -153,7 +168,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -180,13 +195,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFF7FA7E"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -283,7 +292,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -306,18 +315,14 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -333,14 +338,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFF7FA7E"/>
+      <color rgb="FFF9FB9B"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -615,10 +627,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BA15"/>
+  <dimension ref="A1:BA19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="BC5" sqref="BC5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -642,138 +654,138 @@
       <c r="D1" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17" t="s">
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17" t="s">
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17"/>
-      <c r="W1" s="17"/>
-      <c r="X1" s="17"/>
-      <c r="Y1" s="17"/>
-      <c r="Z1" s="17" t="s">
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="AA1" s="17"/>
-      <c r="AB1" s="17"/>
-      <c r="AC1" s="17"/>
-      <c r="AD1" s="17"/>
-      <c r="AE1" s="17"/>
-      <c r="AF1" s="17"/>
-      <c r="AG1" s="17" t="s">
+      <c r="AA1" s="23"/>
+      <c r="AB1" s="23"/>
+      <c r="AC1" s="23"/>
+      <c r="AD1" s="23"/>
+      <c r="AE1" s="23"/>
+      <c r="AF1" s="23"/>
+      <c r="AG1" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="AH1" s="17"/>
-      <c r="AI1" s="17"/>
-      <c r="AJ1" s="17"/>
-      <c r="AK1" s="17"/>
-      <c r="AL1" s="17"/>
-      <c r="AM1" s="17"/>
-      <c r="AN1" s="17" t="s">
+      <c r="AH1" s="23"/>
+      <c r="AI1" s="23"/>
+      <c r="AJ1" s="23"/>
+      <c r="AK1" s="23"/>
+      <c r="AL1" s="23"/>
+      <c r="AM1" s="23"/>
+      <c r="AN1" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="AO1" s="17"/>
-      <c r="AP1" s="17"/>
-      <c r="AQ1" s="17"/>
-      <c r="AR1" s="17"/>
-      <c r="AS1" s="17"/>
-      <c r="AT1" s="17"/>
-      <c r="AU1" s="17" t="s">
+      <c r="AO1" s="23"/>
+      <c r="AP1" s="23"/>
+      <c r="AQ1" s="23"/>
+      <c r="AR1" s="23"/>
+      <c r="AS1" s="23"/>
+      <c r="AT1" s="23"/>
+      <c r="AU1" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="AV1" s="17"/>
-      <c r="AW1" s="17"/>
-      <c r="AX1" s="17"/>
-      <c r="AY1" s="17"/>
-      <c r="AZ1" s="17"/>
-      <c r="BA1" s="17"/>
+      <c r="AV1" s="23"/>
+      <c r="AW1" s="23"/>
+      <c r="AX1" s="23"/>
+      <c r="AY1" s="23"/>
+      <c r="AZ1" s="23"/>
+      <c r="BA1" s="23"/>
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A2" s="18"/>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
       <c r="D2" s="21"/>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17" t="s">
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17" t="s">
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17"/>
-      <c r="X2" s="17"/>
-      <c r="Y2" s="17"/>
-      <c r="Z2" s="17" t="s">
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="23"/>
+      <c r="X2" s="23"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="AA2" s="17"/>
-      <c r="AB2" s="17"/>
-      <c r="AC2" s="17"/>
-      <c r="AD2" s="17"/>
-      <c r="AE2" s="17"/>
-      <c r="AF2" s="17"/>
-      <c r="AG2" s="17" t="s">
+      <c r="AA2" s="23"/>
+      <c r="AB2" s="23"/>
+      <c r="AC2" s="23"/>
+      <c r="AD2" s="23"/>
+      <c r="AE2" s="23"/>
+      <c r="AF2" s="23"/>
+      <c r="AG2" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="AH2" s="17"/>
-      <c r="AI2" s="17"/>
-      <c r="AJ2" s="17"/>
-      <c r="AK2" s="17"/>
-      <c r="AL2" s="17"/>
-      <c r="AM2" s="17"/>
-      <c r="AN2" s="17" t="s">
+      <c r="AH2" s="23"/>
+      <c r="AI2" s="23"/>
+      <c r="AJ2" s="23"/>
+      <c r="AK2" s="23"/>
+      <c r="AL2" s="23"/>
+      <c r="AM2" s="23"/>
+      <c r="AN2" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="AO2" s="17"/>
-      <c r="AP2" s="17"/>
-      <c r="AQ2" s="17"/>
-      <c r="AR2" s="17"/>
-      <c r="AS2" s="17"/>
-      <c r="AT2" s="17"/>
-      <c r="AU2" s="17" t="s">
+      <c r="AO2" s="23"/>
+      <c r="AP2" s="23"/>
+      <c r="AQ2" s="23"/>
+      <c r="AR2" s="23"/>
+      <c r="AS2" s="23"/>
+      <c r="AT2" s="23"/>
+      <c r="AU2" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="AV2" s="17"/>
-      <c r="AW2" s="17"/>
-      <c r="AX2" s="17"/>
-      <c r="AY2" s="17"/>
-      <c r="AZ2" s="17"/>
-      <c r="BA2" s="17"/>
+      <c r="AV2" s="23"/>
+      <c r="AW2" s="23"/>
+      <c r="AX2" s="23"/>
+      <c r="AY2" s="23"/>
+      <c r="AZ2" s="23"/>
+      <c r="BA2" s="23"/>
     </row>
     <row r="3" spans="1:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="19"/>
@@ -1113,13 +1125,13 @@
     </row>
     <row r="7" spans="1:53" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B7" s="8">
         <v>43514</v>
       </c>
       <c r="C7" s="8">
-        <v>43549</v>
+        <v>43523</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="11"/>
@@ -1139,32 +1151,32 @@
       <c r="S7" s="6"/>
       <c r="T7" s="6"/>
       <c r="U7" s="6"/>
-      <c r="V7" s="6"/>
-      <c r="W7" s="6"/>
-      <c r="X7" s="6"/>
-      <c r="Y7" s="6"/>
-      <c r="Z7" s="6"/>
-      <c r="AA7" s="6"/>
-      <c r="AB7" s="6"/>
-      <c r="AC7" s="6"/>
-      <c r="AD7" s="6"/>
-      <c r="AE7" s="6"/>
-      <c r="AF7" s="6"/>
-      <c r="AG7" s="6"/>
-      <c r="AH7" s="6"/>
-      <c r="AI7" s="6"/>
-      <c r="AJ7" s="6"/>
-      <c r="AK7" s="6"/>
-      <c r="AL7" s="6"/>
-      <c r="AM7" s="6"/>
-      <c r="AN7" s="6"/>
-      <c r="AO7" s="6"/>
-      <c r="AP7" s="6"/>
-      <c r="AQ7" s="6"/>
-      <c r="AR7" s="6"/>
-      <c r="AS7" s="6"/>
-      <c r="AT7" s="6"/>
-      <c r="AU7" s="6"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
+      <c r="AA7" s="7"/>
+      <c r="AB7" s="7"/>
+      <c r="AC7" s="7"/>
+      <c r="AD7" s="7"/>
+      <c r="AE7" s="7"/>
+      <c r="AF7" s="7"/>
+      <c r="AG7" s="7"/>
+      <c r="AH7" s="7"/>
+      <c r="AI7" s="7"/>
+      <c r="AJ7" s="7"/>
+      <c r="AK7" s="7"/>
+      <c r="AL7" s="7"/>
+      <c r="AM7" s="7"/>
+      <c r="AN7" s="7"/>
+      <c r="AO7" s="7"/>
+      <c r="AP7" s="7"/>
+      <c r="AQ7" s="7"/>
+      <c r="AR7" s="7"/>
+      <c r="AS7" s="7"/>
+      <c r="AT7" s="7"/>
+      <c r="AU7" s="7"/>
       <c r="AV7" s="7"/>
       <c r="AW7" s="7"/>
       <c r="AX7" s="7"/>
@@ -1173,77 +1185,77 @@
       <c r="BA7" s="7"/>
     </row>
     <row r="8" spans="1:53" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="10">
-        <v>43527</v>
-      </c>
-      <c r="C8" s="10">
-        <v>43536</v>
-      </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
-      <c r="V8" s="1"/>
-      <c r="W8" s="1"/>
-      <c r="X8" s="1"/>
-      <c r="Y8" s="4"/>
-      <c r="Z8" s="4"/>
-      <c r="AA8" s="4"/>
-      <c r="AB8" s="4"/>
-      <c r="AC8" s="4"/>
-      <c r="AD8" s="4"/>
-      <c r="AE8" s="4"/>
-      <c r="AF8" s="4"/>
-      <c r="AG8" s="4"/>
-      <c r="AH8" s="16"/>
-      <c r="AI8" s="24"/>
-      <c r="AJ8" s="24"/>
-      <c r="AK8" s="24"/>
-      <c r="AL8" s="24"/>
-      <c r="AM8" s="24"/>
-      <c r="AN8" s="1"/>
-      <c r="AO8" s="1"/>
-      <c r="AP8" s="1"/>
-      <c r="AQ8" s="1"/>
-      <c r="AR8" s="1"/>
-      <c r="AS8" s="1"/>
-      <c r="AT8" s="1"/>
-      <c r="AU8" s="1"/>
-      <c r="AV8" s="1"/>
-      <c r="AW8" s="1"/>
-      <c r="AX8" s="1"/>
-      <c r="AY8" s="1"/>
-      <c r="AZ8" s="1"/>
-      <c r="BA8" s="1"/>
+      <c r="A8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="8">
+        <v>43514</v>
+      </c>
+      <c r="C8" s="8">
+        <v>43549</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="11"/>
+      <c r="AA8" s="11"/>
+      <c r="AB8" s="11"/>
+      <c r="AC8" s="11"/>
+      <c r="AD8" s="11"/>
+      <c r="AE8" s="11"/>
+      <c r="AF8" s="11"/>
+      <c r="AG8" s="11"/>
+      <c r="AH8" s="11"/>
+      <c r="AI8" s="11"/>
+      <c r="AJ8" s="11"/>
+      <c r="AK8" s="11"/>
+      <c r="AL8" s="11"/>
+      <c r="AM8" s="11"/>
+      <c r="AN8" s="11"/>
+      <c r="AO8" s="11"/>
+      <c r="AP8" s="11"/>
+      <c r="AQ8" s="11"/>
+      <c r="AR8" s="11"/>
+      <c r="AS8" s="11"/>
+      <c r="AT8" s="11"/>
+      <c r="AU8" s="11"/>
+      <c r="AV8" s="7"/>
+      <c r="AW8" s="7"/>
+      <c r="AX8" s="7"/>
+      <c r="AY8" s="7"/>
+      <c r="AZ8" s="7"/>
+      <c r="BA8" s="7"/>
     </row>
     <row r="9" spans="1:53" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B9" s="10">
+        <v>43527</v>
+      </c>
+      <c r="C9" s="10">
         <v>43536</v>
       </c>
-      <c r="C9" s="10">
-        <v>43539</v>
-      </c>
-      <c r="D9" s="15"/>
+      <c r="D9" s="14"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -1264,29 +1276,29 @@
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
       <c r="X9" s="1"/>
-      <c r="Y9" s="1"/>
-      <c r="Z9" s="1"/>
-      <c r="AA9" s="1"/>
-      <c r="AB9" s="1"/>
-      <c r="AC9" s="1"/>
-      <c r="AD9" s="1"/>
-      <c r="AE9" s="1"/>
-      <c r="AF9" s="1"/>
-      <c r="AG9" s="13"/>
-      <c r="AH9" s="4"/>
-      <c r="AI9" s="4"/>
-      <c r="AJ9" s="4"/>
-      <c r="AK9" s="4"/>
-      <c r="AL9" s="13"/>
-      <c r="AM9" s="13"/>
-      <c r="AN9" s="13"/>
-      <c r="AO9" s="13"/>
-      <c r="AP9" s="13"/>
-      <c r="AQ9" s="13"/>
-      <c r="AR9" s="13"/>
-      <c r="AS9" s="13"/>
-      <c r="AT9" s="13"/>
-      <c r="AU9" s="13"/>
+      <c r="Y9" s="4"/>
+      <c r="Z9" s="4"/>
+      <c r="AA9" s="4"/>
+      <c r="AB9" s="4"/>
+      <c r="AC9" s="4"/>
+      <c r="AD9" s="4"/>
+      <c r="AE9" s="4"/>
+      <c r="AF9" s="4"/>
+      <c r="AG9" s="4"/>
+      <c r="AH9" s="15"/>
+      <c r="AI9" s="16"/>
+      <c r="AJ9" s="16"/>
+      <c r="AK9" s="16"/>
+      <c r="AL9" s="16"/>
+      <c r="AM9" s="16"/>
+      <c r="AN9" s="1"/>
+      <c r="AO9" s="1"/>
+      <c r="AP9" s="1"/>
+      <c r="AQ9" s="1"/>
+      <c r="AR9" s="1"/>
+      <c r="AS9" s="1"/>
+      <c r="AT9" s="1"/>
+      <c r="AU9" s="1"/>
       <c r="AV9" s="1"/>
       <c r="AW9" s="1"/>
       <c r="AX9" s="1"/>
@@ -1296,15 +1308,15 @@
     </row>
     <row r="10" spans="1:53" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B10" s="10">
+        <v>43536</v>
+      </c>
+      <c r="C10" s="10">
         <v>43539</v>
       </c>
-      <c r="C10" s="10">
-        <v>43541</v>
-      </c>
-      <c r="D10" s="15"/>
+      <c r="D10" s="14"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -1333,22 +1345,22 @@
       <c r="AD10" s="1"/>
       <c r="AE10" s="1"/>
       <c r="AF10" s="1"/>
-      <c r="AG10" s="1"/>
-      <c r="AH10" s="1"/>
-      <c r="AI10" s="1"/>
-      <c r="AJ10" s="1"/>
+      <c r="AG10" s="12"/>
+      <c r="AH10" s="4"/>
+      <c r="AI10" s="4"/>
+      <c r="AJ10" s="4"/>
       <c r="AK10" s="4"/>
-      <c r="AL10" s="4"/>
-      <c r="AM10" s="4"/>
-      <c r="AN10" s="1"/>
-      <c r="AO10" s="1"/>
-      <c r="AP10" s="1"/>
-      <c r="AQ10" s="1"/>
-      <c r="AR10" s="1"/>
-      <c r="AS10" s="1"/>
-      <c r="AT10" s="1"/>
-      <c r="AU10" s="1"/>
-      <c r="AV10" s="13"/>
+      <c r="AL10" s="12"/>
+      <c r="AM10" s="12"/>
+      <c r="AN10" s="12"/>
+      <c r="AO10" s="12"/>
+      <c r="AP10" s="12"/>
+      <c r="AQ10" s="12"/>
+      <c r="AR10" s="12"/>
+      <c r="AS10" s="12"/>
+      <c r="AT10" s="12"/>
+      <c r="AU10" s="12"/>
+      <c r="AV10" s="1"/>
       <c r="AW10" s="1"/>
       <c r="AX10" s="1"/>
       <c r="AY10" s="1"/>
@@ -1357,15 +1369,15 @@
     </row>
     <row r="11" spans="1:53" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B11" s="10">
+        <v>43539</v>
+      </c>
+      <c r="C11" s="10">
         <v>43541</v>
       </c>
-      <c r="C11" s="10">
-        <v>43542</v>
-      </c>
-      <c r="D11" s="15"/>
+      <c r="D11" s="14"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -1398,10 +1410,10 @@
       <c r="AH11" s="1"/>
       <c r="AI11" s="1"/>
       <c r="AJ11" s="1"/>
-      <c r="AK11" s="1"/>
-      <c r="AL11" s="1"/>
+      <c r="AK11" s="4"/>
+      <c r="AL11" s="4"/>
       <c r="AM11" s="4"/>
-      <c r="AN11" s="4"/>
+      <c r="AN11" s="1"/>
       <c r="AO11" s="1"/>
       <c r="AP11" s="1"/>
       <c r="AQ11" s="1"/>
@@ -1409,7 +1421,7 @@
       <c r="AS11" s="1"/>
       <c r="AT11" s="1"/>
       <c r="AU11" s="1"/>
-      <c r="AV11" s="1"/>
+      <c r="AV11" s="12"/>
       <c r="AW11" s="1"/>
       <c r="AX11" s="1"/>
       <c r="AY11" s="1"/>
@@ -1418,15 +1430,15 @@
     </row>
     <row r="12" spans="1:53" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B12" s="10">
+        <v>43541</v>
+      </c>
+      <c r="C12" s="10">
         <v>43542</v>
       </c>
-      <c r="C12" s="10">
-        <v>43549</v>
-      </c>
-      <c r="D12" s="23"/>
+      <c r="D12" s="14"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -1461,15 +1473,15 @@
       <c r="AJ12" s="1"/>
       <c r="AK12" s="1"/>
       <c r="AL12" s="1"/>
-      <c r="AM12" s="1"/>
+      <c r="AM12" s="4"/>
       <c r="AN12" s="4"/>
-      <c r="AO12" s="4"/>
-      <c r="AP12" s="4"/>
-      <c r="AQ12" s="4"/>
-      <c r="AR12" s="4"/>
-      <c r="AS12" s="4"/>
-      <c r="AT12" s="4"/>
-      <c r="AU12" s="4"/>
+      <c r="AO12" s="1"/>
+      <c r="AP12" s="1"/>
+      <c r="AQ12" s="1"/>
+      <c r="AR12" s="1"/>
+      <c r="AS12" s="1"/>
+      <c r="AT12" s="1"/>
+      <c r="AU12" s="1"/>
       <c r="AV12" s="1"/>
       <c r="AW12" s="1"/>
       <c r="AX12" s="1"/>
@@ -1479,13 +1491,13 @@
     </row>
     <row r="13" spans="1:53" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B13" s="10">
-        <v>43521</v>
+        <v>43542</v>
       </c>
       <c r="C13" s="10">
-        <v>43535</v>
+        <v>43549</v>
       </c>
       <c r="D13" s="14"/>
       <c r="E13" s="1"/>
@@ -1502,35 +1514,35 @@
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
-      <c r="U13" s="4"/>
-      <c r="V13" s="4"/>
-      <c r="W13" s="4"/>
-      <c r="X13" s="4"/>
-      <c r="Y13" s="4"/>
-      <c r="Z13" s="4"/>
-      <c r="AA13" s="4"/>
-      <c r="AB13" s="4"/>
-      <c r="AC13" s="4"/>
-      <c r="AD13" s="4"/>
-      <c r="AE13" s="4"/>
-      <c r="AF13" s="4"/>
-      <c r="AG13" s="4"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="1"/>
+      <c r="AB13" s="1"/>
+      <c r="AC13" s="1"/>
+      <c r="AD13" s="1"/>
+      <c r="AE13" s="1"/>
+      <c r="AF13" s="1"/>
+      <c r="AG13" s="1"/>
       <c r="AH13" s="1"/>
       <c r="AI13" s="1"/>
       <c r="AJ13" s="1"/>
       <c r="AK13" s="1"/>
       <c r="AL13" s="1"/>
       <c r="AM13" s="1"/>
-      <c r="AN13" s="1"/>
-      <c r="AO13" s="1"/>
-      <c r="AP13" s="1"/>
-      <c r="AQ13" s="1"/>
-      <c r="AR13" s="1"/>
-      <c r="AS13" s="1"/>
-      <c r="AT13" s="1"/>
-      <c r="AU13" s="1"/>
+      <c r="AN13" s="4"/>
+      <c r="AO13" s="4"/>
+      <c r="AP13" s="4"/>
+      <c r="AQ13" s="4"/>
+      <c r="AR13" s="4"/>
+      <c r="AS13" s="4"/>
+      <c r="AT13" s="4"/>
+      <c r="AU13" s="4"/>
       <c r="AV13" s="1"/>
       <c r="AW13" s="1"/>
       <c r="AX13" s="1"/>
@@ -1540,15 +1552,15 @@
     </row>
     <row r="14" spans="1:53" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="10">
-        <v>43535</v>
-      </c>
-      <c r="C14" s="10">
-        <v>43542</v>
-      </c>
-      <c r="D14" s="14"/>
+        <v>38</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="17"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -1577,21 +1589,21 @@
       <c r="AD14" s="1"/>
       <c r="AE14" s="1"/>
       <c r="AF14" s="1"/>
-      <c r="AG14" s="4"/>
-      <c r="AH14" s="4"/>
-      <c r="AI14" s="4"/>
-      <c r="AJ14" s="4"/>
-      <c r="AK14" s="4"/>
-      <c r="AL14" s="4"/>
-      <c r="AM14" s="4"/>
-      <c r="AN14" s="4"/>
-      <c r="AO14" s="1"/>
-      <c r="AP14" s="1"/>
-      <c r="AQ14" s="1"/>
-      <c r="AR14" s="1"/>
-      <c r="AS14" s="1"/>
-      <c r="AT14" s="1"/>
-      <c r="AU14" s="1"/>
+      <c r="AG14" s="1"/>
+      <c r="AH14" s="1"/>
+      <c r="AI14" s="1"/>
+      <c r="AJ14" s="1"/>
+      <c r="AK14" s="1"/>
+      <c r="AL14" s="1"/>
+      <c r="AM14" s="1"/>
+      <c r="AN14" s="12"/>
+      <c r="AO14" s="12"/>
+      <c r="AP14" s="12"/>
+      <c r="AQ14" s="12"/>
+      <c r="AR14" s="12"/>
+      <c r="AS14" s="12"/>
+      <c r="AT14" s="12"/>
+      <c r="AU14" s="12"/>
       <c r="AV14" s="1"/>
       <c r="AW14" s="1"/>
       <c r="AX14" s="1"/>
@@ -1601,15 +1613,15 @@
     </row>
     <row r="15" spans="1:53" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="10">
-        <v>43542</v>
-      </c>
-      <c r="C15" s="10">
-        <v>43549</v>
-      </c>
-      <c r="D15" s="12"/>
+        <v>39</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="17"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -1645,14 +1657,14 @@
       <c r="AK15" s="1"/>
       <c r="AL15" s="1"/>
       <c r="AM15" s="1"/>
-      <c r="AN15" s="4"/>
-      <c r="AO15" s="4"/>
-      <c r="AP15" s="4"/>
-      <c r="AQ15" s="4"/>
-      <c r="AR15" s="4"/>
-      <c r="AS15" s="4"/>
-      <c r="AT15" s="4"/>
-      <c r="AU15" s="4"/>
+      <c r="AN15" s="12"/>
+      <c r="AO15" s="12"/>
+      <c r="AP15" s="12"/>
+      <c r="AQ15" s="12"/>
+      <c r="AR15" s="12"/>
+      <c r="AS15" s="12"/>
+      <c r="AT15" s="12"/>
+      <c r="AU15" s="12"/>
       <c r="AV15" s="1"/>
       <c r="AW15" s="1"/>
       <c r="AX15" s="1"/>
@@ -1660,8 +1672,260 @@
       <c r="AZ15" s="1"/>
       <c r="BA15" s="1"/>
     </row>
+    <row r="16" spans="1:53" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="17"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1"/>
+      <c r="AA16" s="1"/>
+      <c r="AB16" s="1"/>
+      <c r="AC16" s="1"/>
+      <c r="AD16" s="1"/>
+      <c r="AE16" s="1"/>
+      <c r="AF16" s="1"/>
+      <c r="AG16" s="1"/>
+      <c r="AH16" s="1"/>
+      <c r="AI16" s="1"/>
+      <c r="AJ16" s="1"/>
+      <c r="AK16" s="1"/>
+      <c r="AL16" s="1"/>
+      <c r="AM16" s="1"/>
+      <c r="AN16" s="12"/>
+      <c r="AO16" s="12"/>
+      <c r="AP16" s="12"/>
+      <c r="AQ16" s="12"/>
+      <c r="AR16" s="12"/>
+      <c r="AS16" s="12"/>
+      <c r="AT16" s="12"/>
+      <c r="AU16" s="12"/>
+      <c r="AV16" s="1"/>
+      <c r="AW16" s="1"/>
+      <c r="AX16" s="1"/>
+      <c r="AY16" s="1"/>
+      <c r="AZ16" s="1"/>
+      <c r="BA16" s="1"/>
+    </row>
+    <row r="17" spans="1:53" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="10">
+        <v>43521</v>
+      </c>
+      <c r="C17" s="10">
+        <v>43535</v>
+      </c>
+      <c r="D17" s="13"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="4"/>
+      <c r="X17" s="4"/>
+      <c r="Y17" s="4"/>
+      <c r="Z17" s="4"/>
+      <c r="AA17" s="4"/>
+      <c r="AB17" s="4"/>
+      <c r="AC17" s="4"/>
+      <c r="AD17" s="4"/>
+      <c r="AE17" s="4"/>
+      <c r="AF17" s="4"/>
+      <c r="AG17" s="4"/>
+      <c r="AH17" s="1"/>
+      <c r="AI17" s="1"/>
+      <c r="AJ17" s="1"/>
+      <c r="AK17" s="1"/>
+      <c r="AL17" s="1"/>
+      <c r="AM17" s="1"/>
+      <c r="AN17" s="1"/>
+      <c r="AO17" s="1"/>
+      <c r="AP17" s="1"/>
+      <c r="AQ17" s="1"/>
+      <c r="AR17" s="1"/>
+      <c r="AS17" s="1"/>
+      <c r="AT17" s="1"/>
+      <c r="AU17" s="1"/>
+      <c r="AV17" s="1"/>
+      <c r="AW17" s="1"/>
+      <c r="AX17" s="1"/>
+      <c r="AY17" s="1"/>
+      <c r="AZ17" s="1"/>
+      <c r="BA17" s="1"/>
+    </row>
+    <row r="18" spans="1:53" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="10">
+        <v>43535</v>
+      </c>
+      <c r="C18" s="10">
+        <v>43542</v>
+      </c>
+      <c r="D18" s="13"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="1"/>
+      <c r="AA18" s="1"/>
+      <c r="AB18" s="1"/>
+      <c r="AC18" s="1"/>
+      <c r="AD18" s="1"/>
+      <c r="AE18" s="1"/>
+      <c r="AF18" s="1"/>
+      <c r="AG18" s="4"/>
+      <c r="AH18" s="4"/>
+      <c r="AI18" s="4"/>
+      <c r="AJ18" s="4"/>
+      <c r="AK18" s="4"/>
+      <c r="AL18" s="4"/>
+      <c r="AM18" s="4"/>
+      <c r="AN18" s="4"/>
+      <c r="AO18" s="1"/>
+      <c r="AP18" s="1"/>
+      <c r="AQ18" s="1"/>
+      <c r="AR18" s="1"/>
+      <c r="AS18" s="1"/>
+      <c r="AT18" s="1"/>
+      <c r="AU18" s="1"/>
+      <c r="AV18" s="1"/>
+      <c r="AW18" s="1"/>
+      <c r="AX18" s="1"/>
+      <c r="AY18" s="1"/>
+      <c r="AZ18" s="1"/>
+      <c r="BA18" s="1"/>
+    </row>
+    <row r="19" spans="1:53" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="10">
+        <v>43542</v>
+      </c>
+      <c r="C19" s="10">
+        <v>43549</v>
+      </c>
+      <c r="D19" s="13"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="1"/>
+      <c r="AA19" s="1"/>
+      <c r="AB19" s="1"/>
+      <c r="AC19" s="1"/>
+      <c r="AD19" s="1"/>
+      <c r="AE19" s="1"/>
+      <c r="AF19" s="1"/>
+      <c r="AG19" s="1"/>
+      <c r="AH19" s="1"/>
+      <c r="AI19" s="1"/>
+      <c r="AJ19" s="1"/>
+      <c r="AK19" s="1"/>
+      <c r="AL19" s="1"/>
+      <c r="AM19" s="1"/>
+      <c r="AN19" s="4"/>
+      <c r="AO19" s="4"/>
+      <c r="AP19" s="4"/>
+      <c r="AQ19" s="4"/>
+      <c r="AR19" s="4"/>
+      <c r="AS19" s="4"/>
+      <c r="AT19" s="4"/>
+      <c r="AU19" s="4"/>
+      <c r="AV19" s="1"/>
+      <c r="AW19" s="1"/>
+      <c r="AX19" s="1"/>
+      <c r="AY19" s="1"/>
+      <c r="AZ19" s="1"/>
+      <c r="BA19" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="AN1:AT1"/>
+    <mergeCell ref="AN2:AT2"/>
+    <mergeCell ref="AU1:BA1"/>
+    <mergeCell ref="AU2:BA2"/>
+    <mergeCell ref="Z1:AF1"/>
+    <mergeCell ref="Z2:AF2"/>
+    <mergeCell ref="AG1:AM1"/>
+    <mergeCell ref="AG2:AM2"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="C1:C3"/>
     <mergeCell ref="D1:D3"/>
@@ -1672,14 +1936,6 @@
     <mergeCell ref="E1:K1"/>
     <mergeCell ref="L1:R1"/>
     <mergeCell ref="L2:R2"/>
-    <mergeCell ref="AN1:AT1"/>
-    <mergeCell ref="AN2:AT2"/>
-    <mergeCell ref="AU1:BA1"/>
-    <mergeCell ref="AU2:BA2"/>
-    <mergeCell ref="Z1:AF1"/>
-    <mergeCell ref="Z2:AF2"/>
-    <mergeCell ref="AG1:AM1"/>
-    <mergeCell ref="AG2:AM2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Projektzeitplan.xlsx
+++ b/Projektzeitplan.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CDD0DEF-8F7B-45D5-8627-4E242DFC9F6C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0786F658-5DDD-4FAD-BD7E-4EE0409D9FDB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -324,6 +324,9 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -337,9 +340,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -630,7 +630,7 @@
   <dimension ref="A1:BA19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BC5" sqref="BC5"/>
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -642,156 +642,156 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23" t="s">
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
-      <c r="S1" s="23" t="s">
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="T1" s="23"/>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
-      <c r="X1" s="23"/>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="23" t="s">
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
+      <c r="X1" s="18"/>
+      <c r="Y1" s="18"/>
+      <c r="Z1" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="AA1" s="23"/>
-      <c r="AB1" s="23"/>
-      <c r="AC1" s="23"/>
-      <c r="AD1" s="23"/>
-      <c r="AE1" s="23"/>
-      <c r="AF1" s="23"/>
-      <c r="AG1" s="23" t="s">
+      <c r="AA1" s="18"/>
+      <c r="AB1" s="18"/>
+      <c r="AC1" s="18"/>
+      <c r="AD1" s="18"/>
+      <c r="AE1" s="18"/>
+      <c r="AF1" s="18"/>
+      <c r="AG1" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="AH1" s="23"/>
-      <c r="AI1" s="23"/>
-      <c r="AJ1" s="23"/>
-      <c r="AK1" s="23"/>
-      <c r="AL1" s="23"/>
-      <c r="AM1" s="23"/>
-      <c r="AN1" s="23" t="s">
+      <c r="AH1" s="18"/>
+      <c r="AI1" s="18"/>
+      <c r="AJ1" s="18"/>
+      <c r="AK1" s="18"/>
+      <c r="AL1" s="18"/>
+      <c r="AM1" s="18"/>
+      <c r="AN1" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="AO1" s="23"/>
-      <c r="AP1" s="23"/>
-      <c r="AQ1" s="23"/>
-      <c r="AR1" s="23"/>
-      <c r="AS1" s="23"/>
-      <c r="AT1" s="23"/>
-      <c r="AU1" s="23" t="s">
+      <c r="AO1" s="18"/>
+      <c r="AP1" s="18"/>
+      <c r="AQ1" s="18"/>
+      <c r="AR1" s="18"/>
+      <c r="AS1" s="18"/>
+      <c r="AT1" s="18"/>
+      <c r="AU1" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="AV1" s="23"/>
-      <c r="AW1" s="23"/>
-      <c r="AX1" s="23"/>
-      <c r="AY1" s="23"/>
-      <c r="AZ1" s="23"/>
-      <c r="BA1" s="23"/>
+      <c r="AV1" s="18"/>
+      <c r="AW1" s="18"/>
+      <c r="AX1" s="18"/>
+      <c r="AY1" s="18"/>
+      <c r="AZ1" s="18"/>
+      <c r="BA1" s="18"/>
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="23" t="s">
+      <c r="A2" s="19"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23" t="s">
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="23" t="s">
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="23"/>
-      <c r="W2" s="23"/>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="23"/>
-      <c r="Z2" s="23" t="s">
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="18"/>
+      <c r="W2" s="18"/>
+      <c r="X2" s="18"/>
+      <c r="Y2" s="18"/>
+      <c r="Z2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="AA2" s="23"/>
-      <c r="AB2" s="23"/>
-      <c r="AC2" s="23"/>
-      <c r="AD2" s="23"/>
-      <c r="AE2" s="23"/>
-      <c r="AF2" s="23"/>
-      <c r="AG2" s="23" t="s">
+      <c r="AA2" s="18"/>
+      <c r="AB2" s="18"/>
+      <c r="AC2" s="18"/>
+      <c r="AD2" s="18"/>
+      <c r="AE2" s="18"/>
+      <c r="AF2" s="18"/>
+      <c r="AG2" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="AH2" s="23"/>
-      <c r="AI2" s="23"/>
-      <c r="AJ2" s="23"/>
-      <c r="AK2" s="23"/>
-      <c r="AL2" s="23"/>
-      <c r="AM2" s="23"/>
-      <c r="AN2" s="23" t="s">
+      <c r="AH2" s="18"/>
+      <c r="AI2" s="18"/>
+      <c r="AJ2" s="18"/>
+      <c r="AK2" s="18"/>
+      <c r="AL2" s="18"/>
+      <c r="AM2" s="18"/>
+      <c r="AN2" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="AO2" s="23"/>
-      <c r="AP2" s="23"/>
-      <c r="AQ2" s="23"/>
-      <c r="AR2" s="23"/>
-      <c r="AS2" s="23"/>
-      <c r="AT2" s="23"/>
-      <c r="AU2" s="23" t="s">
+      <c r="AO2" s="18"/>
+      <c r="AP2" s="18"/>
+      <c r="AQ2" s="18"/>
+      <c r="AR2" s="18"/>
+      <c r="AS2" s="18"/>
+      <c r="AT2" s="18"/>
+      <c r="AU2" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="AV2" s="23"/>
-      <c r="AW2" s="23"/>
-      <c r="AX2" s="23"/>
-      <c r="AY2" s="23"/>
-      <c r="AZ2" s="23"/>
-      <c r="BA2" s="23"/>
+      <c r="AV2" s="18"/>
+      <c r="AW2" s="18"/>
+      <c r="AX2" s="18"/>
+      <c r="AY2" s="18"/>
+      <c r="AZ2" s="18"/>
+      <c r="BA2" s="18"/>
     </row>
     <row r="3" spans="1:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="19"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
+      <c r="A3" s="20"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
       <c r="E3" s="2" t="s">
         <v>1</v>
       </c>
@@ -962,10 +962,10 @@
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
       <c r="T4" s="7"/>
       <c r="U4" s="7"/>
       <c r="V4" s="7"/>
@@ -1918,14 +1918,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="AN1:AT1"/>
-    <mergeCell ref="AN2:AT2"/>
-    <mergeCell ref="AU1:BA1"/>
-    <mergeCell ref="AU2:BA2"/>
-    <mergeCell ref="Z1:AF1"/>
-    <mergeCell ref="Z2:AF2"/>
-    <mergeCell ref="AG1:AM1"/>
-    <mergeCell ref="AG2:AM2"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="C1:C3"/>
     <mergeCell ref="D1:D3"/>
@@ -1936,6 +1928,14 @@
     <mergeCell ref="E1:K1"/>
     <mergeCell ref="L1:R1"/>
     <mergeCell ref="L2:R2"/>
+    <mergeCell ref="AN1:AT1"/>
+    <mergeCell ref="AN2:AT2"/>
+    <mergeCell ref="AU1:BA1"/>
+    <mergeCell ref="AU2:BA2"/>
+    <mergeCell ref="Z1:AF1"/>
+    <mergeCell ref="Z2:AF2"/>
+    <mergeCell ref="AG1:AM1"/>
+    <mergeCell ref="AG2:AM2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
